--- a/kc_house_data_ZIPFILTRADO.xlsx
+++ b/kc_house_data_ZIPFILTRADO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\users\rpcarvalho.YASUDA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B78A9AC-47F9-4399-871F-2590F13C182D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FAD13A-A118-4412-B669-A45664300154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,9 +526,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="d\.m"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -578,15 +577,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1510,11 +1506,11 @@
     <tableColumn id="20" xr3:uid="{B32EEACE-607A-4B8E-9ECD-9DC2E1A975BB}" name="sqft_living15" dataDxfId="28" totalsRowDxfId="4"/>
     <tableColumn id="23" xr3:uid="{FFD8BC52-BB69-41E1-B134-634105A4612E}" name="sqft_lot15" dataDxfId="25" totalsRowDxfId="3"/>
     <tableColumn id="25" xr3:uid="{F9900AE5-0CA4-45D9-81FA-03A3D17F88E7}" name="price" dataDxfId="24" totalsRowDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="24" xr3:uid="{7C53E60C-6D6E-4C19-8E75-7BC70F1078B4}" name="price/sqft" totalsRowFunction="average" dataDxfId="22" totalsRowDxfId="1">
+    <tableColumn id="24" xr3:uid="{7C53E60C-6D6E-4C19-8E75-7BC70F1078B4}" name="price/sqft" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="1">
       <calculatedColumnFormula>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{92B3A977-CCB6-4AFB-9261-46B35B0EF128}" name="caro" totalsRowFunction="average" dataDxfId="23" totalsRowDxfId="0">
-      <calculatedColumnFormula>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</calculatedColumnFormula>
+    <tableColumn id="26" xr3:uid="{92B3A977-CCB6-4AFB-9261-46B35B0EF128}" name="caro" totalsRowFunction="average" dataDxfId="22" totalsRowDxfId="0">
+      <calculatedColumnFormula>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1724,8 +1720,8 @@
   </sheetPr>
   <dimension ref="A1:V201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1734,7 +1730,7 @@
     <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1798,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>7335400215</v>
       </c>
@@ -1860,19 +1856,19 @@
       <c r="S2" s="1">
         <v>6696</v>
       </c>
-      <c r="T2" s="6">
+      <c r="T2" s="5">
         <v>95000</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>97.9381443298969</v>
       </c>
-      <c r="V2" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V2" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1735800050</v>
       </c>
@@ -1930,19 +1926,19 @@
       <c r="S3" s="1">
         <v>5381</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <v>142500</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>107.14285714285714</v>
       </c>
-      <c r="V3" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V3" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2648500030</v>
       </c>
@@ -2000,19 +1996,19 @@
       <c r="S4" s="1">
         <v>5760</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <v>112000</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>92.561983471074385</v>
       </c>
-      <c r="V4" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V4" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>16000397</v>
       </c>
@@ -2070,19 +2066,19 @@
       <c r="S5" s="1">
         <v>5095</v>
       </c>
-      <c r="T5" s="6">
+      <c r="T5" s="5">
         <v>189000</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>178.30188679245282</v>
       </c>
-      <c r="V5" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V5" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>16000435</v>
       </c>
@@ -2140,19 +2136,19 @@
       <c r="S6" s="1">
         <v>6798</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6" s="5">
         <v>218500</v>
       </c>
-      <c r="U6" s="5">
+      <c r="U6" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>145.47270306258324</v>
       </c>
-      <c r="V6" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V6" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>835000055</v>
       </c>
@@ -2210,19 +2206,19 @@
       <c r="S7" s="1">
         <v>6497</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7" s="5">
         <v>175000</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>145.83333333333334</v>
       </c>
-      <c r="V7" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V7" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7116500705</v>
       </c>
@@ -2280,19 +2276,19 @@
       <c r="S8" s="1">
         <v>6180</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <v>156000</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>128.92561983471074</v>
       </c>
-      <c r="V8" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V8" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7116000425</v>
       </c>
@@ -2350,19 +2346,19 @@
       <c r="S9" s="1">
         <v>6180</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9" s="5">
         <v>150000</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>159.57446808510639</v>
       </c>
-      <c r="V9" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V9" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8698100170</v>
       </c>
@@ -2420,19 +2416,19 @@
       <c r="S10" s="1">
         <v>6000</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <v>111300</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>118.40425531914893</v>
       </c>
-      <c r="V10" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V10" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>7335400500</v>
       </c>
@@ -2490,19 +2486,19 @@
       <c r="S11" s="1">
         <v>6695</v>
       </c>
-      <c r="T11" s="6">
+      <c r="T11" s="5">
         <v>194900</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>170.96491228070175</v>
       </c>
-      <c r="V11" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V11" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>7335400345</v>
       </c>
@@ -2560,19 +2556,19 @@
       <c r="S12" s="1">
         <v>6695</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <v>135000</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>153.40909090909091</v>
       </c>
-      <c r="V12" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V12" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>1921059045</v>
       </c>
@@ -2630,19 +2626,19 @@
       <c r="S13" s="1">
         <v>6480</v>
       </c>
-      <c r="T13" s="6">
+      <c r="T13" s="5">
         <v>195000</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>191.1764705882353</v>
       </c>
-      <c r="V13" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V13" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>8698600395</v>
       </c>
@@ -2700,19 +2696,19 @@
       <c r="S14" s="1">
         <v>5354</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="5">
         <v>150000</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>145.63106796116506</v>
       </c>
-      <c r="V14" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V14" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>7338000150</v>
       </c>
@@ -2770,19 +2766,19 @@
       <c r="S15" s="1">
         <v>4200</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15" s="5">
         <v>160000</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>139.13043478260869</v>
       </c>
-      <c r="V15" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V15" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>8581400450</v>
       </c>
@@ -2840,19 +2836,19 @@
       <c r="S16" s="1">
         <v>5026</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <v>159995</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>161.61111111111111</v>
       </c>
-      <c r="V16" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V16" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>8581400015</v>
       </c>
@@ -2910,19 +2906,19 @@
       <c r="S17" s="1">
         <v>6327</v>
       </c>
-      <c r="T17" s="6">
+      <c r="T17" s="5">
         <v>189900</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>188.01980198019803</v>
       </c>
-      <c r="V17" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V17" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>6131600075</v>
       </c>
@@ -2980,19 +2976,19 @@
       <c r="S18" s="1">
         <v>8316</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <v>225000</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>178.57142857142858</v>
       </c>
-      <c r="V18" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V18" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>6131600060</v>
       </c>
@@ -3050,19 +3046,19 @@
       <c r="S19" s="1">
         <v>8316</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <v>214000</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>178.33333333333334</v>
       </c>
-      <c r="V19" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V19" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>1450100070</v>
       </c>
@@ -3120,19 +3116,19 @@
       <c r="S20" s="1">
         <v>7420</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="5">
         <v>208000</v>
       </c>
-      <c r="U20" s="5">
+      <c r="U20" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>205.94059405940595</v>
       </c>
-      <c r="V20" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V20" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3915500045</v>
       </c>
@@ -3190,19 +3186,19 @@
       <c r="S21" s="1">
         <v>10354</v>
       </c>
-      <c r="T21" s="6">
+      <c r="T21" s="5">
         <v>180000</v>
       </c>
-      <c r="U21" s="5">
+      <c r="U21" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>169.81132075471697</v>
       </c>
-      <c r="V21" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V21" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>7345000340</v>
       </c>
@@ -3260,19 +3256,19 @@
       <c r="S22" s="1">
         <v>8000</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="5">
         <v>208000</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>151.82481751824818</v>
       </c>
-      <c r="V22" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V22" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3021059155</v>
       </c>
@@ -3330,19 +3326,19 @@
       <c r="S23" s="1">
         <v>13137</v>
       </c>
-      <c r="T23" s="6">
+      <c r="T23" s="5">
         <v>161500</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U23" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>113.73239436619718</v>
       </c>
-      <c r="V23" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V23" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>7877400266</v>
       </c>
@@ -3400,19 +3396,19 @@
       <c r="S24" s="1">
         <v>11348</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="5">
         <v>206000</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>196.1904761904762</v>
       </c>
-      <c r="V24" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V24" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>2891100820</v>
       </c>
@@ -3470,19 +3466,19 @@
       <c r="S25" s="1">
         <v>6000</v>
       </c>
-      <c r="T25" s="6">
+      <c r="T25" s="5">
         <v>213500</v>
       </c>
-      <c r="U25" s="5">
+      <c r="U25" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>150.35211267605635</v>
       </c>
-      <c r="V25" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V25" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>7468900245</v>
       </c>
@@ -3540,19 +3536,19 @@
       <c r="S26" s="1">
         <v>7200</v>
       </c>
-      <c r="T26" s="6">
+      <c r="T26" s="5">
         <v>188200</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>200.21276595744681</v>
       </c>
-      <c r="V26" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V26" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>7140800100</v>
       </c>
@@ -3610,19 +3606,19 @@
       <c r="S27" s="1">
         <v>7276</v>
       </c>
-      <c r="T27" s="6">
+      <c r="T27" s="5">
         <v>125000</v>
       </c>
-      <c r="U27" s="5">
+      <c r="U27" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>111.60714285714286</v>
       </c>
-      <c r="V27" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V27" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3313600266</v>
       </c>
@@ -3680,19 +3676,19 @@
       <c r="S28" s="1">
         <v>8100</v>
       </c>
-      <c r="T28" s="6">
+      <c r="T28" s="5">
         <v>190000</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>146.15384615384616</v>
       </c>
-      <c r="V28" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V28" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>304000380</v>
       </c>
@@ -3750,19 +3746,19 @@
       <c r="S29" s="1">
         <v>12000</v>
       </c>
-      <c r="T29" s="6">
+      <c r="T29" s="5">
         <v>197000</v>
       </c>
-      <c r="U29" s="5">
+      <c r="U29" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>151.53846153846155</v>
       </c>
-      <c r="V29" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V29" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>7140600020</v>
       </c>
@@ -3820,19 +3816,19 @@
       <c r="S30" s="1">
         <v>10364</v>
       </c>
-      <c r="T30" s="6">
+      <c r="T30" s="5">
         <v>245000</v>
       </c>
-      <c r="U30" s="5">
+      <c r="U30" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>201.48026315789474</v>
       </c>
-      <c r="V30" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V30" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>1821059067</v>
       </c>
@@ -3851,8 +3847,8 @@
       <c r="F31" s="1">
         <v>4800</v>
       </c>
-      <c r="G31" s="3">
-        <v>43952</v>
+      <c r="G31" s="4">
+        <v>1.5</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -3890,19 +3886,19 @@
       <c r="S31" s="1">
         <v>9510</v>
       </c>
-      <c r="T31" s="6">
+      <c r="T31" s="5">
         <v>200000</v>
       </c>
-      <c r="U31" s="5">
+      <c r="U31" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>152.67175572519085</v>
       </c>
-      <c r="V31" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V31" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>1202000140</v>
       </c>
@@ -3960,19 +3956,19 @@
       <c r="S32" s="1">
         <v>4697</v>
       </c>
-      <c r="T32" s="6">
+      <c r="T32" s="5">
         <v>160000</v>
       </c>
-      <c r="U32" s="5">
+      <c r="U32" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>150.9433962264151</v>
       </c>
-      <c r="V32" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V32" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>7889000125</v>
       </c>
@@ -4030,19 +4026,19 @@
       <c r="S33" s="1">
         <v>8000</v>
       </c>
-      <c r="T33" s="6">
+      <c r="T33" s="5">
         <v>235000</v>
       </c>
-      <c r="U33" s="5">
+      <c r="U33" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>237.37373737373738</v>
       </c>
-      <c r="V33" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V33" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>1450100390</v>
       </c>
@@ -4100,19 +4096,19 @@
       <c r="S34" s="1">
         <v>7420</v>
       </c>
-      <c r="T34" s="6">
+      <c r="T34" s="5">
         <v>125000</v>
       </c>
-      <c r="U34" s="5">
+      <c r="U34" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>123.76237623762377</v>
       </c>
-      <c r="V34" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V34" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>1450100390</v>
       </c>
@@ -4170,19 +4166,19 @@
       <c r="S35" s="1">
         <v>7420</v>
       </c>
-      <c r="T35" s="6">
+      <c r="T35" s="5">
         <v>208000</v>
       </c>
-      <c r="U35" s="5">
+      <c r="U35" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>205.94059405940595</v>
       </c>
-      <c r="V35" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V35" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>7345200400</v>
       </c>
@@ -4240,19 +4236,19 @@
       <c r="S36" s="1">
         <v>7700</v>
       </c>
-      <c r="T36" s="6">
+      <c r="T36" s="5">
         <v>205000</v>
       </c>
-      <c r="U36" s="5">
+      <c r="U36" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>132.25806451612902</v>
       </c>
-      <c r="V36" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V36" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>7889000160</v>
       </c>
@@ -4310,19 +4306,19 @@
       <c r="S37" s="1">
         <v>7440</v>
       </c>
-      <c r="T37" s="6">
+      <c r="T37" s="5">
         <v>222000</v>
       </c>
-      <c r="U37" s="5">
+      <c r="U37" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>224.24242424242425</v>
       </c>
-      <c r="V37" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V37" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>7140600055</v>
       </c>
@@ -4380,19 +4376,19 @@
       <c r="S38" s="1">
         <v>10364</v>
       </c>
-      <c r="T38" s="6">
+      <c r="T38" s="5">
         <v>207000</v>
       </c>
-      <c r="U38" s="5">
+      <c r="U38" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>195.28301886792454</v>
       </c>
-      <c r="V38" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V38" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>7468900270</v>
       </c>
@@ -4450,19 +4446,19 @@
       <c r="S39" s="1">
         <v>7800</v>
       </c>
-      <c r="T39" s="6">
+      <c r="T39" s="5">
         <v>140000</v>
       </c>
-      <c r="U39" s="5">
+      <c r="U39" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>101.44927536231884</v>
       </c>
-      <c r="V39" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V39" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>7116000350</v>
       </c>
@@ -4520,19 +4516,19 @@
       <c r="S40" s="1">
         <v>7828</v>
       </c>
-      <c r="T40" s="6">
+      <c r="T40" s="5">
         <v>128750</v>
       </c>
-      <c r="U40" s="5">
+      <c r="U40" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>146.30681818181819</v>
       </c>
-      <c r="V40" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V40" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>6131600240</v>
       </c>
@@ -4590,19 +4586,19 @@
       <c r="S41" s="1">
         <v>8316</v>
       </c>
-      <c r="T41" s="6">
+      <c r="T41" s="5">
         <v>190000</v>
       </c>
-      <c r="U41" s="5">
+      <c r="U41" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>152</v>
       </c>
-      <c r="V41" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V41" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>1450000210</v>
       </c>
@@ -4660,19 +4656,19 @@
       <c r="S42" s="1">
         <v>7830</v>
       </c>
-      <c r="T42" s="6">
+      <c r="T42" s="5">
         <v>179500</v>
       </c>
-      <c r="U42" s="5">
+      <c r="U42" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>179.5</v>
       </c>
-      <c r="V42" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V42" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>1450100020</v>
       </c>
@@ -4730,19 +4726,19 @@
       <c r="S43" s="1">
         <v>7420</v>
       </c>
-      <c r="T43" s="6">
+      <c r="T43" s="5">
         <v>208000</v>
       </c>
-      <c r="U43" s="5">
+      <c r="U43" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>166.4</v>
       </c>
-      <c r="V43" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V43" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>1450100420</v>
       </c>
@@ -4800,19 +4796,19 @@
       <c r="S44" s="1">
         <v>7314</v>
       </c>
-      <c r="T44" s="6">
+      <c r="T44" s="5">
         <v>205000</v>
       </c>
-      <c r="U44" s="5">
+      <c r="U44" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>207.07070707070707</v>
       </c>
-      <c r="V44" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V44" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>1450000050</v>
       </c>
@@ -4870,19 +4866,19 @@
       <c r="S45" s="1">
         <v>7452</v>
       </c>
-      <c r="T45" s="6">
+      <c r="T45" s="5">
         <v>201000</v>
       </c>
-      <c r="U45" s="5">
+      <c r="U45" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>164.75409836065575</v>
       </c>
-      <c r="V45" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V45" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>7116000225</v>
       </c>
@@ -4940,19 +4936,19 @@
       <c r="S46" s="1">
         <v>7828</v>
       </c>
-      <c r="T46" s="6">
+      <c r="T46" s="5">
         <v>190000</v>
       </c>
-      <c r="U46" s="5">
+      <c r="U46" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>182.69230769230768</v>
       </c>
-      <c r="V46" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V46" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>9150100020</v>
       </c>
@@ -4971,8 +4967,8 @@
       <c r="F47" s="1">
         <v>7282</v>
       </c>
-      <c r="G47" s="3">
-        <v>43952</v>
+      <c r="G47" s="4">
+        <v>1.5</v>
       </c>
       <c r="H47" s="1">
         <v>0</v>
@@ -5010,19 +5006,19 @@
       <c r="S47" s="1">
         <v>4826</v>
       </c>
-      <c r="T47" s="6">
+      <c r="T47" s="5">
         <v>189000</v>
       </c>
-      <c r="U47" s="5">
+      <c r="U47" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>219.76744186046511</v>
       </c>
-      <c r="V47" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V47" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>7468900235</v>
       </c>
@@ -5080,19 +5076,19 @@
       <c r="S48" s="1">
         <v>7800</v>
       </c>
-      <c r="T48" s="6">
+      <c r="T48" s="5">
         <v>163500</v>
       </c>
-      <c r="U48" s="5">
+      <c r="U48" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>150</v>
       </c>
-      <c r="V48" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V48" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>7140600225</v>
       </c>
@@ -5150,19 +5146,19 @@
       <c r="S49" s="1">
         <v>10125</v>
       </c>
-      <c r="T49" s="6">
+      <c r="T49" s="5">
         <v>137000</v>
       </c>
-      <c r="U49" s="5">
+      <c r="U49" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>105.38461538461539</v>
       </c>
-      <c r="V49" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V49" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>6138000095</v>
       </c>
@@ -5181,8 +5177,8 @@
       <c r="F50" s="1">
         <v>10639</v>
       </c>
-      <c r="G50" s="3">
-        <v>43952</v>
+      <c r="G50" s="4">
+        <v>1.5</v>
       </c>
       <c r="H50" s="1">
         <v>0</v>
@@ -5220,19 +5216,19 @@
       <c r="S50" s="1">
         <v>10600</v>
       </c>
-      <c r="T50" s="6">
+      <c r="T50" s="5">
         <v>219000</v>
       </c>
-      <c r="U50" s="5">
+      <c r="U50" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>148.9795918367347</v>
       </c>
-      <c r="V50" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V50" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>7335400020</v>
       </c>
@@ -5251,8 +5247,8 @@
       <c r="F51" s="1">
         <v>6710</v>
       </c>
-      <c r="G51" s="3">
-        <v>43952</v>
+      <c r="G51" s="4">
+        <v>1.5</v>
       </c>
       <c r="H51" s="1">
         <v>0</v>
@@ -5290,19 +5286,19 @@
       <c r="S51" s="1">
         <v>6708</v>
       </c>
-      <c r="T51" s="6">
+      <c r="T51" s="5">
         <v>219500</v>
       </c>
-      <c r="U51" s="5">
+      <c r="U51" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>187.60683760683762</v>
       </c>
-      <c r="V51" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V51" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>7345000120</v>
       </c>
@@ -5360,19 +5356,19 @@
       <c r="S52" s="1">
         <v>7455</v>
       </c>
-      <c r="T52" s="6">
+      <c r="T52" s="5">
         <v>206000</v>
       </c>
-      <c r="U52" s="5">
+      <c r="U52" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>163.49206349206349</v>
       </c>
-      <c r="V52" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V52" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>2891000450</v>
       </c>
@@ -5430,19 +5426,19 @@
       <c r="S53" s="1">
         <v>6000</v>
       </c>
-      <c r="T53" s="6">
+      <c r="T53" s="5">
         <v>229500</v>
       </c>
-      <c r="U53" s="5">
+      <c r="U53" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>185.08064516129033</v>
       </c>
-      <c r="V53" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V53" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>3313600077</v>
       </c>
@@ -5500,19 +5496,19 @@
       <c r="S54" s="1">
         <v>8100</v>
       </c>
-      <c r="T54" s="6">
+      <c r="T54" s="5">
         <v>185000</v>
       </c>
-      <c r="U54" s="5">
+      <c r="U54" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>172.89719626168224</v>
       </c>
-      <c r="V54" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V54" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>7877400245</v>
       </c>
@@ -5570,19 +5566,19 @@
       <c r="S55" s="1">
         <v>10761</v>
       </c>
-      <c r="T55" s="6">
+      <c r="T55" s="5">
         <v>193000</v>
       </c>
-      <c r="U55" s="5">
+      <c r="U55" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>201.04166666666666</v>
       </c>
-      <c r="V55" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V55" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>3802000020</v>
       </c>
@@ -5640,19 +5636,19 @@
       <c r="S56" s="1">
         <v>10416</v>
       </c>
-      <c r="T56" s="6">
+      <c r="T56" s="5">
         <v>154950</v>
       </c>
-      <c r="U56" s="5">
+      <c r="U56" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>109.8936170212766</v>
       </c>
-      <c r="V56" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V56" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>6131600285</v>
       </c>
@@ -5671,8 +5667,8 @@
       <c r="F57" s="1">
         <v>8636</v>
       </c>
-      <c r="G57" s="3">
-        <v>43952</v>
+      <c r="G57" s="4">
+        <v>1.5</v>
       </c>
       <c r="H57" s="1">
         <v>0</v>
@@ -5710,19 +5706,19 @@
       <c r="S57" s="1">
         <v>8316</v>
       </c>
-      <c r="T57" s="6">
+      <c r="T57" s="5">
         <v>195500</v>
       </c>
-      <c r="U57" s="5">
+      <c r="U57" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>167.38013698630138</v>
       </c>
-      <c r="V57" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V57" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>16000545</v>
       </c>
@@ -5780,19 +5776,19 @@
       <c r="S58" s="1">
         <v>6766</v>
       </c>
-      <c r="T58" s="6">
+      <c r="T58" s="5">
         <v>250000</v>
       </c>
-      <c r="U58" s="5">
+      <c r="U58" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>235.84905660377359</v>
       </c>
-      <c r="V58" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V58" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>4223400050</v>
       </c>
@@ -5802,7 +5798,7 @@
       <c r="C59" s="1">
         <v>2</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>1.5</v>
       </c>
       <c r="E59" s="1">
@@ -5850,19 +5846,19 @@
       <c r="S59" s="1">
         <v>9730</v>
       </c>
-      <c r="T59" s="6">
+      <c r="T59" s="5">
         <v>330000</v>
       </c>
-      <c r="U59" s="5">
+      <c r="U59" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>226.02739726027397</v>
       </c>
-      <c r="V59" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V59" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>9500900135</v>
       </c>
@@ -5872,7 +5868,7 @@
       <c r="C60" s="1">
         <v>3</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="4">
         <v>1.5</v>
       </c>
       <c r="E60" s="1">
@@ -5920,19 +5916,19 @@
       <c r="S60" s="1">
         <v>10588</v>
       </c>
-      <c r="T60" s="6">
+      <c r="T60" s="5">
         <v>200000</v>
       </c>
-      <c r="U60" s="5">
+      <c r="U60" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>142.04545454545453</v>
       </c>
-      <c r="V60" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V60" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>16000015</v>
       </c>
@@ -5942,7 +5938,7 @@
       <c r="C61" s="1">
         <v>3</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="4">
         <v>1.5</v>
       </c>
       <c r="E61" s="1">
@@ -5990,19 +5986,19 @@
       <c r="S61" s="1">
         <v>6614</v>
       </c>
-      <c r="T61" s="6">
+      <c r="T61" s="5">
         <v>219950</v>
       </c>
-      <c r="U61" s="5">
+      <c r="U61" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>213.54368932038835</v>
       </c>
-      <c r="V61" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V61" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>7338000850</v>
       </c>
@@ -6012,7 +6008,7 @@
       <c r="C62" s="1">
         <v>3</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <v>1.5</v>
       </c>
       <c r="E62" s="1">
@@ -6060,19 +6056,19 @@
       <c r="S62" s="1">
         <v>4366</v>
       </c>
-      <c r="T62" s="6">
+      <c r="T62" s="5">
         <v>183000</v>
       </c>
-      <c r="U62" s="5">
+      <c r="U62" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>142.96875</v>
       </c>
-      <c r="V62" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V62" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>7140600190</v>
       </c>
@@ -6082,7 +6078,7 @@
       <c r="C63" s="1">
         <v>3</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>1.5</v>
       </c>
       <c r="E63" s="1">
@@ -6130,19 +6126,19 @@
       <c r="S63" s="1">
         <v>10658</v>
       </c>
-      <c r="T63" s="6">
+      <c r="T63" s="5">
         <v>233500</v>
       </c>
-      <c r="U63" s="5">
+      <c r="U63" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>166.78571428571428</v>
       </c>
-      <c r="V63" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V63" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>3224800010</v>
       </c>
@@ -6152,7 +6148,7 @@
       <c r="C64" s="1">
         <v>3</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>1.5</v>
       </c>
       <c r="E64" s="1">
@@ -6200,19 +6196,19 @@
       <c r="S64" s="1">
         <v>8466</v>
       </c>
-      <c r="T64" s="6">
+      <c r="T64" s="5">
         <v>235000</v>
       </c>
-      <c r="U64" s="5">
+      <c r="U64" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>156.66666666666666</v>
       </c>
-      <c r="V64" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V64" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>7338001190</v>
       </c>
@@ -6222,7 +6218,7 @@
       <c r="C65" s="1">
         <v>3</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>1.5</v>
       </c>
       <c r="E65" s="1">
@@ -6270,19 +6266,19 @@
       <c r="S65" s="1">
         <v>4491</v>
       </c>
-      <c r="T65" s="6">
+      <c r="T65" s="5">
         <v>215000</v>
       </c>
-      <c r="U65" s="5">
+      <c r="U65" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>200.93457943925233</v>
       </c>
-      <c r="V65" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V65" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>7338000950</v>
       </c>
@@ -6292,7 +6288,7 @@
       <c r="C66" s="1">
         <v>3</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>1.5</v>
       </c>
       <c r="E66" s="1">
@@ -6340,19 +6336,19 @@
       <c r="S66" s="1">
         <v>4366</v>
       </c>
-      <c r="T66" s="6">
+      <c r="T66" s="5">
         <v>187000</v>
       </c>
-      <c r="U66" s="5">
+      <c r="U66" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>174.7663551401869</v>
       </c>
-      <c r="V66" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V66" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>5198600005</v>
       </c>
@@ -6362,7 +6358,7 @@
       <c r="C67" s="1">
         <v>3</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="4">
         <v>1.5</v>
       </c>
       <c r="E67" s="1">
@@ -6410,19 +6406,19 @@
       <c r="S67" s="1">
         <v>8415</v>
       </c>
-      <c r="T67" s="6">
+      <c r="T67" s="5">
         <v>195000</v>
       </c>
-      <c r="U67" s="5">
+      <c r="U67" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>140.28776978417267</v>
       </c>
-      <c r="V67" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V67" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>9500900110</v>
       </c>
@@ -6432,7 +6428,7 @@
       <c r="C68" s="1">
         <v>3</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="4">
         <v>1.5</v>
       </c>
       <c r="E68" s="1">
@@ -6480,19 +6476,19 @@
       <c r="S68" s="1">
         <v>10588</v>
       </c>
-      <c r="T68" s="6">
+      <c r="T68" s="5">
         <v>224000</v>
       </c>
-      <c r="U68" s="5">
+      <c r="U68" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>163.50364963503651</v>
       </c>
-      <c r="V68" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V68" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>7338000270</v>
       </c>
@@ -6502,7 +6498,7 @@
       <c r="C69" s="1">
         <v>3</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>1.5</v>
       </c>
       <c r="E69" s="1">
@@ -6550,19 +6546,19 @@
       <c r="S69" s="1">
         <v>4105</v>
       </c>
-      <c r="T69" s="6">
+      <c r="T69" s="5">
         <v>184500</v>
       </c>
-      <c r="U69" s="5">
+      <c r="U69" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>160.43478260869566</v>
       </c>
-      <c r="V69" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V69" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>7338000800</v>
       </c>
@@ -6572,7 +6568,7 @@
       <c r="C70" s="1">
         <v>3</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>1.5</v>
       </c>
       <c r="E70" s="1">
@@ -6620,19 +6616,19 @@
       <c r="S70" s="1">
         <v>4500</v>
       </c>
-      <c r="T70" s="6">
+      <c r="T70" s="5">
         <v>185000</v>
       </c>
-      <c r="U70" s="5">
+      <c r="U70" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>160.86956521739131</v>
       </c>
-      <c r="V70" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V70" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>3021059197</v>
       </c>
@@ -6642,7 +6638,7 @@
       <c r="C71" s="1">
         <v>3</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>1.5</v>
       </c>
       <c r="E71" s="1">
@@ -6651,7 +6647,7 @@
       <c r="F71" s="1">
         <v>10583</v>
       </c>
-      <c r="G71" s="5">
+      <c r="G71" s="4">
         <v>1.5</v>
       </c>
       <c r="H71" s="1">
@@ -6690,19 +6686,19 @@
       <c r="S71" s="1">
         <v>9068</v>
       </c>
-      <c r="T71" s="6">
+      <c r="T71" s="5">
         <v>247200</v>
       </c>
-      <c r="U71" s="5">
+      <c r="U71" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>139.66101694915255</v>
       </c>
-      <c r="V71" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V71" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>7338000730</v>
       </c>
@@ -6712,7 +6708,7 @@
       <c r="C72" s="1">
         <v>3</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>1.5</v>
       </c>
       <c r="E72" s="1">
@@ -6760,19 +6756,19 @@
       <c r="S72" s="1">
         <v>4500</v>
       </c>
-      <c r="T72" s="6">
+      <c r="T72" s="5">
         <v>167000</v>
       </c>
-      <c r="U72" s="5">
+      <c r="U72" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>145.21739130434781</v>
       </c>
-      <c r="V72" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V72" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>2597500840</v>
       </c>
@@ -6782,7 +6778,7 @@
       <c r="C73" s="1">
         <v>3</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>1.5</v>
       </c>
       <c r="E73" s="1">
@@ -6830,19 +6826,19 @@
       <c r="S73" s="1">
         <v>8424</v>
       </c>
-      <c r="T73" s="6">
+      <c r="T73" s="5">
         <v>209950</v>
       </c>
-      <c r="U73" s="5">
+      <c r="U73" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>103.42364532019704</v>
       </c>
-      <c r="V73" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V73" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>1821059264</v>
       </c>
@@ -6852,7 +6848,7 @@
       <c r="C74" s="1">
         <v>4</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="4">
         <v>1.5</v>
       </c>
       <c r="E74" s="1">
@@ -6900,19 +6896,19 @@
       <c r="S74" s="1">
         <v>9918</v>
       </c>
-      <c r="T74" s="6">
+      <c r="T74" s="5">
         <v>224000</v>
       </c>
-      <c r="U74" s="5">
+      <c r="U74" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>145.45454545454547</v>
       </c>
-      <c r="V74" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V74" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>492000475</v>
       </c>
@@ -6922,7 +6918,7 @@
       <c r="C75" s="1">
         <v>4</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="4">
         <v>1.5</v>
       </c>
       <c r="E75" s="1">
@@ -6931,7 +6927,7 @@
       <c r="F75" s="1">
         <v>7561</v>
       </c>
-      <c r="G75" s="5">
+      <c r="G75" s="4">
         <v>1.5</v>
       </c>
       <c r="H75" s="1">
@@ -6970,19 +6966,19 @@
       <c r="S75" s="1">
         <v>6564</v>
       </c>
-      <c r="T75" s="6">
+      <c r="T75" s="5">
         <v>245000</v>
       </c>
-      <c r="U75" s="5">
+      <c r="U75" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>172.53521126760563</v>
       </c>
-      <c r="V75" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V75" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>7331900290</v>
       </c>
@@ -6992,7 +6988,7 @@
       <c r="C76" s="1">
         <v>4</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>1.5</v>
       </c>
       <c r="E76" s="1">
@@ -7040,19 +7036,19 @@
       <c r="S76" s="1">
         <v>8800</v>
       </c>
-      <c r="T76" s="6">
+      <c r="T76" s="5">
         <v>230000</v>
       </c>
-      <c r="U76" s="5">
+      <c r="U76" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>167.88321167883211</v>
       </c>
-      <c r="V76" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V76" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>7806210070</v>
       </c>
@@ -7062,7 +7058,7 @@
       <c r="C77" s="1">
         <v>4</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>1.5</v>
       </c>
       <c r="E77" s="1">
@@ -7110,19 +7106,19 @@
       <c r="S77" s="1">
         <v>8554</v>
       </c>
-      <c r="T77" s="6">
+      <c r="T77" s="5">
         <v>249500</v>
       </c>
-      <c r="U77" s="5">
+      <c r="U77" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>139.38547486033519</v>
       </c>
-      <c r="V77" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V77" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>3021059175</v>
       </c>
@@ -7132,7 +7128,7 @@
       <c r="C78" s="1">
         <v>4</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>1.5</v>
       </c>
       <c r="E78" s="1">
@@ -7180,19 +7176,19 @@
       <c r="S78" s="1">
         <v>10550</v>
       </c>
-      <c r="T78" s="6">
+      <c r="T78" s="5">
         <v>235000</v>
       </c>
-      <c r="U78" s="5">
+      <c r="U78" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>167.85714285714286</v>
       </c>
-      <c r="V78" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V78" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>7335400065</v>
       </c>
@@ -7202,7 +7198,7 @@
       <c r="C79" s="1">
         <v>4</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>1.5</v>
       </c>
       <c r="E79" s="1">
@@ -7250,19 +7246,19 @@
       <c r="S79" s="1">
         <v>6716</v>
       </c>
-      <c r="T79" s="6">
+      <c r="T79" s="5">
         <v>229950</v>
       </c>
-      <c r="U79" s="5">
+      <c r="U79" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>201.71052631578948</v>
       </c>
-      <c r="V79" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V79" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>4399210130</v>
       </c>
@@ -7320,19 +7316,19 @@
       <c r="S80" s="1">
         <v>10687</v>
       </c>
-      <c r="T80" s="6">
+      <c r="T80" s="5">
         <v>225500</v>
       </c>
-      <c r="U80" s="5">
+      <c r="U80" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>128.85714285714286</v>
       </c>
-      <c r="V80" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V80" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>1921059310</v>
       </c>
@@ -7390,19 +7386,19 @@
       <c r="S81" s="1">
         <v>7810</v>
       </c>
-      <c r="T81" s="6">
+      <c r="T81" s="5">
         <v>193000</v>
       </c>
-      <c r="U81" s="5">
+      <c r="U81" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>133.10344827586206</v>
       </c>
-      <c r="V81" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V81" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>3224800075</v>
       </c>
@@ -7460,19 +7456,19 @@
       <c r="S82" s="1">
         <v>8738</v>
       </c>
-      <c r="T82" s="6">
+      <c r="T82" s="5">
         <v>234000</v>
       </c>
-      <c r="U82" s="5">
+      <c r="U82" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>140.96385542168676</v>
       </c>
-      <c r="V82" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V82" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>3021059244</v>
       </c>
@@ -7530,19 +7526,19 @@
       <c r="S83" s="1">
         <v>10183</v>
       </c>
-      <c r="T83" s="6">
+      <c r="T83" s="5">
         <v>249950</v>
       </c>
-      <c r="U83" s="5">
+      <c r="U83" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>148.7797619047619</v>
       </c>
-      <c r="V83" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V83" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>4399200075</v>
       </c>
@@ -7600,19 +7596,19 @@
       <c r="S84" s="1">
         <v>9706</v>
       </c>
-      <c r="T84" s="6">
+      <c r="T84" s="5">
         <v>250000</v>
       </c>
-      <c r="U84" s="5">
+      <c r="U84" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>153.37423312883436</v>
       </c>
-      <c r="V84" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V84" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>3313600340</v>
       </c>
@@ -7670,19 +7666,19 @@
       <c r="S85" s="1">
         <v>8100</v>
       </c>
-      <c r="T85" s="6">
+      <c r="T85" s="5">
         <v>183000</v>
       </c>
-      <c r="U85" s="5">
+      <c r="U85" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>145.23809523809524</v>
       </c>
-      <c r="V85" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V85" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>8698100115</v>
       </c>
@@ -7701,7 +7697,7 @@
       <c r="F86" s="1">
         <v>6000</v>
       </c>
-      <c r="G86" s="5">
+      <c r="G86" s="4">
         <v>1.5</v>
       </c>
       <c r="H86" s="1">
@@ -7740,19 +7736,19 @@
       <c r="S86" s="1">
         <v>6000</v>
       </c>
-      <c r="T86" s="6">
+      <c r="T86" s="5">
         <v>255000</v>
       </c>
-      <c r="U86" s="5">
+      <c r="U86" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>158.38509316770185</v>
       </c>
-      <c r="V86" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V86" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>7349650490</v>
       </c>
@@ -7810,19 +7806,19 @@
       <c r="S87" s="1">
         <v>7461</v>
       </c>
-      <c r="T87" s="6">
+      <c r="T87" s="5">
         <v>285000</v>
       </c>
-      <c r="U87" s="5">
+      <c r="U87" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>175.92592592592592</v>
       </c>
-      <c r="V87" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V87" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>8154100020</v>
       </c>
@@ -7880,19 +7876,19 @@
       <c r="S88" s="1">
         <v>9496</v>
       </c>
-      <c r="T88" s="6">
+      <c r="T88" s="5">
         <v>248500</v>
       </c>
-      <c r="U88" s="5">
+      <c r="U88" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>146.1764705882353</v>
       </c>
-      <c r="V88" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V88" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>2891000680</v>
       </c>
@@ -7950,19 +7946,19 @@
       <c r="S89" s="1">
         <v>6148</v>
       </c>
-      <c r="T89" s="6">
+      <c r="T89" s="5">
         <v>195000</v>
       </c>
-      <c r="U89" s="5">
+      <c r="U89" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>144.44444444444446</v>
       </c>
-      <c r="V89" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V89" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>6858700225</v>
       </c>
@@ -8020,19 +8016,19 @@
       <c r="S90" s="1">
         <v>9496</v>
       </c>
-      <c r="T90" s="6">
+      <c r="T90" s="5">
         <v>199950</v>
       </c>
-      <c r="U90" s="5">
+      <c r="U90" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>113.60795454545455</v>
       </c>
-      <c r="V90" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V90" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>8892900210</v>
       </c>
@@ -8090,19 +8086,19 @@
       <c r="S91" s="1">
         <v>6144</v>
       </c>
-      <c r="T91" s="6">
+      <c r="T91" s="5">
         <v>236000</v>
       </c>
-      <c r="U91" s="5">
+      <c r="U91" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>177.44360902255639</v>
       </c>
-      <c r="V91" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V91" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>7331900270</v>
       </c>
@@ -8160,19 +8156,19 @@
       <c r="S92" s="1">
         <v>9266</v>
       </c>
-      <c r="T92" s="6">
+      <c r="T92" s="5">
         <v>235000</v>
       </c>
-      <c r="U92" s="5">
+      <c r="U92" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>195.83333333333334</v>
       </c>
-      <c r="V92" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V92" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>9500900060</v>
       </c>
@@ -8230,19 +8226,19 @@
       <c r="S93" s="1">
         <v>10800</v>
       </c>
-      <c r="T93" s="6">
+      <c r="T93" s="5">
         <v>269950</v>
       </c>
-      <c r="U93" s="5">
+      <c r="U93" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>186.17241379310346</v>
       </c>
-      <c r="V93" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V93" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>8892900180</v>
       </c>
@@ -8300,19 +8296,19 @@
       <c r="S94" s="1">
         <v>6301</v>
       </c>
-      <c r="T94" s="6">
+      <c r="T94" s="5">
         <v>250000</v>
       </c>
-      <c r="U94" s="5">
+      <c r="U94" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>187.96992481203009</v>
       </c>
-      <c r="V94" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V94" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>5001700040</v>
       </c>
@@ -8370,19 +8366,19 @@
       <c r="S95" s="1">
         <v>7810</v>
       </c>
-      <c r="T95" s="6">
+      <c r="T95" s="5">
         <v>255000</v>
       </c>
-      <c r="U95" s="5">
+      <c r="U95" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>173.46938775510205</v>
       </c>
-      <c r="V95" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V95" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>7349660050</v>
       </c>
@@ -8440,19 +8436,19 @@
       <c r="S96" s="1">
         <v>7711</v>
       </c>
-      <c r="T96" s="6">
+      <c r="T96" s="5">
         <v>268000</v>
       </c>
-      <c r="U96" s="5">
+      <c r="U96" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>127.61904761904762</v>
       </c>
-      <c r="V96" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V96" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>3224900130</v>
       </c>
@@ -8510,19 +8506,19 @@
       <c r="S97" s="1">
         <v>8240</v>
       </c>
-      <c r="T97" s="6">
+      <c r="T97" s="5">
         <v>223000</v>
       </c>
-      <c r="U97" s="5">
+      <c r="U97" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>147.68211920529802</v>
       </c>
-      <c r="V97" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V97" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>7349400100</v>
       </c>
@@ -8580,19 +8576,19 @@
       <c r="S98" s="1">
         <v>7698</v>
       </c>
-      <c r="T98" s="6">
+      <c r="T98" s="5">
         <v>279950</v>
       </c>
-      <c r="U98" s="5">
+      <c r="U98" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>174.96875</v>
       </c>
-      <c r="V98" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V98" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>1450100330</v>
       </c>
@@ -8650,19 +8646,19 @@
       <c r="S99" s="1">
         <v>7314</v>
       </c>
-      <c r="T99" s="6">
+      <c r="T99" s="5">
         <v>237950</v>
       </c>
-      <c r="U99" s="5">
+      <c r="U99" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>235.59405940594058</v>
       </c>
-      <c r="V99" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V99" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>4399210110</v>
       </c>
@@ -8720,19 +8716,19 @@
       <c r="S100" s="1">
         <v>11276</v>
       </c>
-      <c r="T100" s="6">
+      <c r="T100" s="5">
         <v>232603</v>
       </c>
-      <c r="U100" s="5">
+      <c r="U100" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>108.6929906542056</v>
       </c>
-      <c r="V100" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V100" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>7345310100</v>
       </c>
@@ -8790,19 +8786,19 @@
       <c r="S101" s="1">
         <v>7645</v>
       </c>
-      <c r="T101" s="6">
+      <c r="T101" s="5">
         <v>238000</v>
       </c>
-      <c r="U101" s="5">
+      <c r="U101" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>154.54545454545453</v>
       </c>
-      <c r="V101" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V101" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>7806210190</v>
       </c>
@@ -8860,19 +8856,19 @@
       <c r="S102" s="1">
         <v>9020</v>
       </c>
-      <c r="T102" s="6">
+      <c r="T102" s="5">
         <v>239000</v>
       </c>
-      <c r="U102" s="5">
+      <c r="U102" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>140.58823529411765</v>
       </c>
-      <c r="V102" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V102" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>2648000071</v>
       </c>
@@ -8930,19 +8926,19 @@
       <c r="S103" s="1">
         <v>10300</v>
       </c>
-      <c r="T103" s="6">
+      <c r="T103" s="5">
         <v>225000</v>
       </c>
-      <c r="U103" s="5">
+      <c r="U103" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>158.45070422535213</v>
       </c>
-      <c r="V103" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V103" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>5125400385</v>
       </c>
@@ -8961,7 +8957,7 @@
       <c r="F104" s="1">
         <v>18400</v>
       </c>
-      <c r="G104" s="5">
+      <c r="G104" s="4">
         <v>1.5</v>
       </c>
       <c r="H104" s="1">
@@ -9000,19 +8996,19 @@
       <c r="S104" s="1">
         <v>13535</v>
       </c>
-      <c r="T104" s="6">
+      <c r="T104" s="5">
         <v>220000</v>
       </c>
-      <c r="U104" s="5">
+      <c r="U104" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>135.80246913580248</v>
       </c>
-      <c r="V104" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V104" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>9500900430</v>
       </c>
@@ -9070,19 +9066,19 @@
       <c r="S105" s="1">
         <v>10587</v>
       </c>
-      <c r="T105" s="6">
+      <c r="T105" s="5">
         <v>265000</v>
       </c>
-      <c r="U105" s="5">
+      <c r="U105" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>173.20261437908496</v>
       </c>
-      <c r="V105" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V105" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>7806210250</v>
       </c>
@@ -9140,19 +9136,19 @@
       <c r="S106" s="1">
         <v>8400</v>
       </c>
-      <c r="T106" s="6">
+      <c r="T106" s="5">
         <v>235000</v>
       </c>
-      <c r="U106" s="5">
+      <c r="U106" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>123.03664921465969</v>
       </c>
-      <c r="V106" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V106" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>2891000610</v>
       </c>
@@ -9210,19 +9206,19 @@
       <c r="S107" s="1">
         <v>6000</v>
       </c>
-      <c r="T107" s="6">
+      <c r="T107" s="5">
         <v>148900</v>
       </c>
-      <c r="U107" s="5">
+      <c r="U107" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>116.328125</v>
       </c>
-      <c r="V107" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V107" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>3339900096</v>
       </c>
@@ -9280,19 +9276,19 @@
       <c r="S108" s="1">
         <v>10125</v>
       </c>
-      <c r="T108" s="6">
+      <c r="T108" s="5">
         <v>250750</v>
       </c>
-      <c r="U108" s="5">
+      <c r="U108" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>152.89634146341464</v>
       </c>
-      <c r="V108" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V108" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>7806210400</v>
       </c>
@@ -9350,19 +9346,19 @@
       <c r="S109" s="1">
         <v>8025</v>
       </c>
-      <c r="T109" s="6">
+      <c r="T109" s="5">
         <v>255000</v>
       </c>
-      <c r="U109" s="5">
+      <c r="U109" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>133.50785340314135</v>
       </c>
-      <c r="V109" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V109" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>1921059213</v>
       </c>
@@ -9420,19 +9416,19 @@
       <c r="S110" s="1">
         <v>11550</v>
       </c>
-      <c r="T110" s="6">
+      <c r="T110" s="5">
         <v>246000</v>
       </c>
-      <c r="U110" s="5">
+      <c r="U110" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>139.77272727272728</v>
       </c>
-      <c r="V110" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V110" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>8698600055</v>
       </c>
@@ -9490,19 +9486,19 @@
       <c r="S111" s="1">
         <v>5447</v>
       </c>
-      <c r="T111" s="6">
+      <c r="T111" s="5">
         <v>210000</v>
       </c>
-      <c r="U111" s="5">
+      <c r="U111" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>156.71641791044777</v>
       </c>
-      <c r="V111" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V111" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>7116500125</v>
       </c>
@@ -9560,19 +9556,19 @@
       <c r="S112" s="1">
         <v>5906</v>
       </c>
-      <c r="T112" s="6">
+      <c r="T112" s="5">
         <v>189000</v>
       </c>
-      <c r="U112" s="5">
+      <c r="U112" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>136.95652173913044</v>
       </c>
-      <c r="V112" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V112" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>1202000200</v>
       </c>
@@ -9591,8 +9587,8 @@
       <c r="F113" s="1">
         <v>4697</v>
       </c>
-      <c r="G113" s="3">
-        <v>43952</v>
+      <c r="G113" s="4">
+        <v>1.5</v>
       </c>
       <c r="H113" s="1">
         <v>0</v>
@@ -9630,19 +9626,19 @@
       <c r="S113" s="1">
         <v>4705</v>
       </c>
-      <c r="T113" s="6">
+      <c r="T113" s="5">
         <v>233000</v>
       </c>
-      <c r="U113" s="5">
+      <c r="U113" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>226.21359223300971</v>
       </c>
-      <c r="V113" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V113" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>2021069059</v>
       </c>
@@ -9700,19 +9696,19 @@
       <c r="S114" s="1">
         <v>30056</v>
       </c>
-      <c r="T114" s="6">
+      <c r="T114" s="5">
         <v>254600</v>
       </c>
-      <c r="U114" s="5">
+      <c r="U114" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>183.16546762589928</v>
       </c>
-      <c r="V114" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V114" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>2149800148</v>
       </c>
@@ -9770,19 +9766,19 @@
       <c r="S115" s="1">
         <v>7153</v>
       </c>
-      <c r="T115" s="6">
+      <c r="T115" s="5">
         <v>257200</v>
       </c>
-      <c r="U115" s="5">
+      <c r="U115" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>162.78481012658227</v>
       </c>
-      <c r="V115" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V115" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>2891000750</v>
       </c>
@@ -9840,19 +9836,19 @@
       <c r="S116" s="1">
         <v>6338</v>
       </c>
-      <c r="T116" s="6">
+      <c r="T116" s="5">
         <v>222000</v>
       </c>
-      <c r="U116" s="5">
+      <c r="U116" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>155.24475524475525</v>
       </c>
-      <c r="V116" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V116" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>1388600110</v>
       </c>
@@ -9910,19 +9906,19 @@
       <c r="S117" s="1">
         <v>7929</v>
       </c>
-      <c r="T117" s="6">
+      <c r="T117" s="5">
         <v>245000</v>
       </c>
-      <c r="U117" s="5">
+      <c r="U117" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>148.4848484848485</v>
       </c>
-      <c r="V117" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V117" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>3141600210</v>
       </c>
@@ -9980,19 +9976,19 @@
       <c r="S118" s="1">
         <v>6480</v>
       </c>
-      <c r="T118" s="6">
+      <c r="T118" s="5">
         <v>186000</v>
       </c>
-      <c r="U118" s="5">
+      <c r="U118" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>189.79591836734693</v>
       </c>
-      <c r="V118" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V118" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>1721059069</v>
       </c>
@@ -10050,19 +10046,19 @@
       <c r="S119" s="1">
         <v>7750</v>
       </c>
-      <c r="T119" s="6">
+      <c r="T119" s="5">
         <v>235000</v>
       </c>
-      <c r="U119" s="5">
+      <c r="U119" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>169.06474820143885</v>
       </c>
-      <c r="V119" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V119" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>5198600010</v>
       </c>
@@ -10120,19 +10116,19 @@
       <c r="S120" s="1">
         <v>8415</v>
       </c>
-      <c r="T120" s="6">
+      <c r="T120" s="5">
         <v>180000</v>
       </c>
-      <c r="U120" s="5">
+      <c r="U120" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>135.33834586466165</v>
       </c>
-      <c r="V120" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V120" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>6131600255</v>
       </c>
@@ -10190,19 +10186,19 @@
       <c r="S121" s="1">
         <v>8316</v>
       </c>
-      <c r="T121" s="6">
+      <c r="T121" s="5">
         <v>202500</v>
       </c>
-      <c r="U121" s="5">
+      <c r="U121" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>162</v>
       </c>
-      <c r="V121" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V121" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>7345200650</v>
       </c>
@@ -10221,7 +10217,7 @@
       <c r="F122" s="1">
         <v>7000</v>
       </c>
-      <c r="G122" s="5">
+      <c r="G122" s="4">
         <v>1.5</v>
       </c>
       <c r="H122" s="1">
@@ -10260,19 +10256,19 @@
       <c r="S122" s="1">
         <v>7480</v>
       </c>
-      <c r="T122" s="6">
+      <c r="T122" s="5">
         <v>219200</v>
       </c>
-      <c r="U122" s="5">
+      <c r="U122" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>142.33766233766235</v>
       </c>
-      <c r="V122" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V122" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>9499200220</v>
       </c>
@@ -10291,7 +10287,7 @@
       <c r="F123" s="1">
         <v>5280</v>
       </c>
-      <c r="G123" s="5">
+      <c r="G123" s="4">
         <v>1.5</v>
       </c>
       <c r="H123" s="1">
@@ -10330,19 +10326,19 @@
       <c r="S123" s="1">
         <v>7875</v>
       </c>
-      <c r="T123" s="6">
+      <c r="T123" s="5">
         <v>234000</v>
       </c>
-      <c r="U123" s="5">
+      <c r="U123" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>201.72413793103448</v>
       </c>
-      <c r="V123" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V123" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>3021059276</v>
       </c>
@@ -10400,19 +10396,19 @@
       <c r="S124" s="1">
         <v>7650</v>
       </c>
-      <c r="T124" s="6">
+      <c r="T124" s="5">
         <v>250000</v>
       </c>
-      <c r="U124" s="5">
+      <c r="U124" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>124.37810945273633</v>
       </c>
-      <c r="V124" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V124" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>1887500045</v>
       </c>
@@ -10470,19 +10466,19 @@
       <c r="S125" s="1">
         <v>6648</v>
       </c>
-      <c r="T125" s="6">
+      <c r="T125" s="5">
         <v>247500</v>
       </c>
-      <c r="U125" s="5">
+      <c r="U125" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>196.42857142857142</v>
       </c>
-      <c r="V125" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V125" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>7335400400</v>
       </c>
@@ -10540,19 +10536,19 @@
       <c r="S126" s="1">
         <v>6702</v>
       </c>
-      <c r="T126" s="6">
+      <c r="T126" s="5">
         <v>176250</v>
       </c>
-      <c r="U126" s="5">
+      <c r="U126" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>171.11650485436894</v>
       </c>
-      <c r="V126" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V126" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>7806210380</v>
       </c>
@@ -10610,19 +10606,19 @@
       <c r="S127" s="1">
         <v>8736</v>
       </c>
-      <c r="T127" s="6">
+      <c r="T127" s="5">
         <v>257500</v>
       </c>
-      <c r="U127" s="5">
+      <c r="U127" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>136.24338624338625</v>
       </c>
-      <c r="V127" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V127" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>8699100160</v>
       </c>
@@ -10641,7 +10637,7 @@
       <c r="F128" s="1">
         <v>5404</v>
       </c>
-      <c r="G128" s="5">
+      <c r="G128" s="4">
         <v>1.5</v>
       </c>
       <c r="H128" s="1">
@@ -10680,19 +10676,19 @@
       <c r="S128" s="1">
         <v>5477</v>
       </c>
-      <c r="T128" s="6">
+      <c r="T128" s="5">
         <v>250000</v>
       </c>
-      <c r="U128" s="5">
+      <c r="U128" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>242.71844660194174</v>
       </c>
-      <c r="V128" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V128" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>5125400305</v>
       </c>
@@ -10750,19 +10746,19 @@
       <c r="S129" s="1">
         <v>16015</v>
       </c>
-      <c r="T129" s="6">
+      <c r="T129" s="5">
         <v>367500</v>
       </c>
-      <c r="U129" s="5">
+      <c r="U129" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>187.5</v>
       </c>
-      <c r="V129" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V129" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>7116500925</v>
       </c>
@@ -10820,19 +10816,19 @@
       <c r="S130" s="1">
         <v>5956</v>
       </c>
-      <c r="T130" s="6">
+      <c r="T130" s="5">
         <v>206000</v>
       </c>
-      <c r="U130" s="5">
+      <c r="U130" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>156.06060606060606</v>
       </c>
-      <c r="V130" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V130" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>3747600050</v>
       </c>
@@ -10851,7 +10847,7 @@
       <c r="F131" s="1">
         <v>5472</v>
       </c>
-      <c r="G131" s="5">
+      <c r="G131" s="4">
         <v>1.5</v>
       </c>
       <c r="H131" s="1">
@@ -10890,19 +10886,19 @@
       <c r="S131" s="1">
         <v>5472</v>
       </c>
-      <c r="T131" s="6">
+      <c r="T131" s="5">
         <v>319450</v>
       </c>
-      <c r="U131" s="5">
+      <c r="U131" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>207.43506493506493</v>
       </c>
-      <c r="V131" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V131" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>3141600600</v>
       </c>
@@ -10960,19 +10956,19 @@
       <c r="S132" s="1">
         <v>5123</v>
       </c>
-      <c r="T132" s="6">
+      <c r="T132" s="5">
         <v>260000</v>
       </c>
-      <c r="U132" s="5">
+      <c r="U132" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>222.22222222222223</v>
       </c>
-      <c r="V132" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V132" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>301402280</v>
       </c>
@@ -11030,19 +11026,19 @@
       <c r="S133" s="1">
         <v>2887</v>
       </c>
-      <c r="T133" s="6">
+      <c r="T133" s="5">
         <v>223990</v>
       </c>
-      <c r="U133" s="5">
+      <c r="U133" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>151.24240378122889</v>
       </c>
-      <c r="V133" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V133" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>4399200100</v>
       </c>
@@ -11100,19 +11096,19 @@
       <c r="S134" s="1">
         <v>9706</v>
       </c>
-      <c r="T134" s="6">
+      <c r="T134" s="5">
         <v>288000</v>
       </c>
-      <c r="U134" s="5">
+      <c r="U134" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>190.72847682119206</v>
       </c>
-      <c r="V134" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V134" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>3339900640</v>
       </c>
@@ -11131,7 +11127,7 @@
       <c r="F135" s="1">
         <v>7420</v>
       </c>
-      <c r="G135" s="5">
+      <c r="G135" s="4">
         <v>1.5</v>
       </c>
       <c r="H135" s="1">
@@ -11170,19 +11166,19 @@
       <c r="S135" s="1">
         <v>7556</v>
       </c>
-      <c r="T135" s="6">
+      <c r="T135" s="5">
         <v>200000</v>
       </c>
-      <c r="U135" s="5">
+      <c r="U135" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>158.73015873015873</v>
       </c>
-      <c r="V135" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V135" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>16000200</v>
       </c>
@@ -11240,19 +11236,19 @@
       <c r="S136" s="1">
         <v>6632</v>
       </c>
-      <c r="T136" s="6">
+      <c r="T136" s="5">
         <v>250000</v>
       </c>
-      <c r="U136" s="5">
+      <c r="U136" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>203.2520325203252</v>
       </c>
-      <c r="V136" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V136" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>7349600230</v>
       </c>
@@ -11310,19 +11306,19 @@
       <c r="S137" s="1">
         <v>7418</v>
       </c>
-      <c r="T137" s="6">
+      <c r="T137" s="5">
         <v>275000</v>
       </c>
-      <c r="U137" s="5">
+      <c r="U137" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>171.875</v>
       </c>
-      <c r="V137" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V137" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>2597501190</v>
       </c>
@@ -11380,19 +11376,19 @@
       <c r="S138" s="1">
         <v>8140</v>
       </c>
-      <c r="T138" s="6">
+      <c r="T138" s="5">
         <v>270000</v>
       </c>
-      <c r="U138" s="5">
+      <c r="U138" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>152.54237288135593</v>
       </c>
-      <c r="V138" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V138" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>6382000080</v>
       </c>
@@ -11450,19 +11446,19 @@
       <c r="S139" s="1">
         <v>12039</v>
       </c>
-      <c r="T139" s="6">
+      <c r="T139" s="5">
         <v>340000</v>
       </c>
-      <c r="U139" s="5">
+      <c r="U139" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>242.85714285714286</v>
       </c>
-      <c r="V139" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V139" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>7349650230</v>
       </c>
@@ -11520,19 +11516,19 @@
       <c r="S140" s="1">
         <v>6318</v>
       </c>
-      <c r="T140" s="6">
+      <c r="T140" s="5">
         <v>247500</v>
       </c>
-      <c r="U140" s="5">
+      <c r="U140" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>144.73684210526315</v>
       </c>
-      <c r="V140" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V140" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>301400850</v>
       </c>
@@ -11590,19 +11586,19 @@
       <c r="S141" s="1">
         <v>3200</v>
       </c>
-      <c r="T141" s="6">
+      <c r="T141" s="5">
         <v>260000</v>
       </c>
-      <c r="U141" s="5">
+      <c r="U141" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>164.14141414141415</v>
       </c>
-      <c r="V141" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V141" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>301402120</v>
       </c>
@@ -11660,19 +11656,19 @@
       <c r="S142" s="1">
         <v>3028</v>
       </c>
-      <c r="T142" s="6">
+      <c r="T142" s="5">
         <v>240000</v>
       </c>
-      <c r="U142" s="5">
+      <c r="U142" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>162.05266711681296</v>
       </c>
-      <c r="V142" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V142" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>301400930</v>
       </c>
@@ -11730,19 +11726,19 @@
       <c r="S143" s="1">
         <v>2800</v>
       </c>
-      <c r="T143" s="6">
+      <c r="T143" s="5">
         <v>267000</v>
       </c>
-      <c r="U143" s="5">
+      <c r="U143" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>168.56060606060606</v>
       </c>
-      <c r="V143" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V143" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>301400940</v>
       </c>
@@ -11800,19 +11796,19 @@
       <c r="S144" s="1">
         <v>2800</v>
       </c>
-      <c r="T144" s="6">
+      <c r="T144" s="5">
         <v>265000</v>
       </c>
-      <c r="U144" s="5">
+      <c r="U144" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>167.29797979797979</v>
       </c>
-      <c r="V144" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V144" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>301400800</v>
       </c>
@@ -11870,19 +11866,19 @@
       <c r="S145" s="1">
         <v>2800</v>
       </c>
-      <c r="T145" s="6">
+      <c r="T145" s="5">
         <v>261000</v>
       </c>
-      <c r="U145" s="5">
+      <c r="U145" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>164.77272727272728</v>
       </c>
-      <c r="V145" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V145" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>301402140</v>
       </c>
@@ -11940,19 +11936,19 @@
       <c r="S146" s="1">
         <v>2889</v>
       </c>
-      <c r="T146" s="6">
+      <c r="T146" s="5">
         <v>250000</v>
       </c>
-      <c r="U146" s="5">
+      <c r="U146" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>168.80486158001349</v>
       </c>
-      <c r="V146" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V146" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>4399200245</v>
       </c>
@@ -12010,19 +12006,19 @@
       <c r="S147" s="1">
         <v>10216</v>
       </c>
-      <c r="T147" s="6">
+      <c r="T147" s="5">
         <v>276000</v>
       </c>
-      <c r="U147" s="5">
+      <c r="U147" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>169.32515337423314</v>
       </c>
-      <c r="V147" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V147" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>7349400420</v>
       </c>
@@ -12080,19 +12076,19 @@
       <c r="S148" s="1">
         <v>9272</v>
       </c>
-      <c r="T148" s="6">
+      <c r="T148" s="5">
         <v>286285</v>
       </c>
-      <c r="U148" s="5">
+      <c r="U148" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>177.81677018633539</v>
       </c>
-      <c r="V148" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V148" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>1921059303</v>
       </c>
@@ -12150,19 +12146,19 @@
       <c r="S149" s="1">
         <v>12100</v>
       </c>
-      <c r="T149" s="6">
+      <c r="T149" s="5">
         <v>275000</v>
       </c>
-      <c r="U149" s="5">
+      <c r="U149" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>170.80745341614906</v>
       </c>
-      <c r="V149" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V149" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>7349400610</v>
       </c>
@@ -12220,19 +12216,19 @@
       <c r="S150" s="1">
         <v>7400</v>
       </c>
-      <c r="T150" s="6">
+      <c r="T150" s="5">
         <v>305000</v>
       </c>
-      <c r="U150" s="5">
+      <c r="U150" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>188.27160493827159</v>
       </c>
-      <c r="V150" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V150" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>7349620030</v>
       </c>
@@ -12290,19 +12286,19 @@
       <c r="S151" s="1">
         <v>6366</v>
       </c>
-      <c r="T151" s="6">
+      <c r="T151" s="5">
         <v>272000</v>
       </c>
-      <c r="U151" s="5">
+      <c r="U151" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>111.47540983606558</v>
       </c>
-      <c r="V151" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V151" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>4399200085</v>
       </c>
@@ -12360,19 +12356,19 @@
       <c r="S152" s="1">
         <v>9686</v>
       </c>
-      <c r="T152" s="6">
+      <c r="T152" s="5">
         <v>315000</v>
       </c>
-      <c r="U152" s="5">
+      <c r="U152" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>177.96610169491527</v>
       </c>
-      <c r="V152" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V152" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>8669160310</v>
       </c>
@@ -12382,7 +12378,7 @@
       <c r="C153" s="1">
         <v>3</v>
       </c>
-      <c r="D153" s="5">
+      <c r="D153" s="4">
         <v>2.5</v>
       </c>
       <c r="E153" s="1">
@@ -12430,19 +12426,19 @@
       <c r="S153" s="1">
         <v>3402</v>
       </c>
-      <c r="T153" s="6">
+      <c r="T153" s="5">
         <v>266000</v>
       </c>
-      <c r="U153" s="5">
+      <c r="U153" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>126.9689737470167</v>
       </c>
-      <c r="V153" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V153" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>8669160010</v>
       </c>
@@ -12452,7 +12448,7 @@
       <c r="C154" s="1">
         <v>3</v>
       </c>
-      <c r="D154" s="5">
+      <c r="D154" s="4">
         <v>2.5</v>
       </c>
       <c r="E154" s="1">
@@ -12500,19 +12496,19 @@
       <c r="S154" s="1">
         <v>3402</v>
       </c>
-      <c r="T154" s="6">
+      <c r="T154" s="5">
         <v>292500</v>
       </c>
-      <c r="U154" s="5">
+      <c r="U154" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>162.04986149584488</v>
       </c>
-      <c r="V154" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V154" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>3224800120</v>
       </c>
@@ -12522,7 +12518,7 @@
       <c r="C155" s="1">
         <v>3</v>
       </c>
-      <c r="D155" s="5">
+      <c r="D155" s="4">
         <v>2.5</v>
       </c>
       <c r="E155" s="1">
@@ -12570,19 +12566,19 @@
       <c r="S155" s="1">
         <v>9239</v>
       </c>
-      <c r="T155" s="6">
+      <c r="T155" s="5">
         <v>250000</v>
       </c>
-      <c r="U155" s="5">
+      <c r="U155" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>120.77294685990339</v>
       </c>
-      <c r="V155" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V155" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>7889100020</v>
       </c>
@@ -12592,7 +12588,7 @@
       <c r="C156" s="1">
         <v>3</v>
       </c>
-      <c r="D156" s="5">
+      <c r="D156" s="4">
         <v>2.5</v>
       </c>
       <c r="E156" s="1">
@@ -12640,19 +12636,19 @@
       <c r="S156" s="1">
         <v>8550</v>
       </c>
-      <c r="T156" s="6">
+      <c r="T156" s="5">
         <v>270000</v>
       </c>
-      <c r="U156" s="5">
+      <c r="U156" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>184.93150684931507</v>
       </c>
-      <c r="V156" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V156" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>4472000050</v>
       </c>
@@ -12662,7 +12658,7 @@
       <c r="C157" s="1">
         <v>3</v>
       </c>
-      <c r="D157" s="5">
+      <c r="D157" s="4">
         <v>2.5</v>
       </c>
       <c r="E157" s="1">
@@ -12710,19 +12706,19 @@
       <c r="S157" s="1">
         <v>6600</v>
       </c>
-      <c r="T157" s="6">
+      <c r="T157" s="5">
         <v>265000</v>
       </c>
-      <c r="U157" s="5">
+      <c r="U157" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>155.88235294117646</v>
       </c>
-      <c r="V157" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V157" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>7338220280</v>
       </c>
@@ -12732,7 +12728,7 @@
       <c r="C158" s="1">
         <v>3</v>
       </c>
-      <c r="D158" s="5">
+      <c r="D158" s="4">
         <v>2.5</v>
       </c>
       <c r="E158" s="1">
@@ -12780,19 +12776,19 @@
       <c r="S158" s="1">
         <v>3794</v>
       </c>
-      <c r="T158" s="6">
+      <c r="T158" s="5">
         <v>257000</v>
       </c>
-      <c r="U158" s="5">
+      <c r="U158" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>126.60098522167488</v>
       </c>
-      <c r="V158" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V158" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>1018000276</v>
       </c>
@@ -12802,7 +12798,7 @@
       <c r="C159" s="1">
         <v>3</v>
       </c>
-      <c r="D159" s="5">
+      <c r="D159" s="4">
         <v>2.5</v>
       </c>
       <c r="E159" s="1">
@@ -12850,19 +12846,19 @@
       <c r="S159" s="1">
         <v>4520</v>
       </c>
-      <c r="T159" s="6">
+      <c r="T159" s="5">
         <v>217000</v>
       </c>
-      <c r="U159" s="5">
+      <c r="U159" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>219.1919191919192</v>
       </c>
-      <c r="V159" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V159" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>301400830</v>
       </c>
@@ -12872,7 +12868,7 @@
       <c r="C160" s="1">
         <v>3</v>
       </c>
-      <c r="D160" s="5">
+      <c r="D160" s="4">
         <v>2.5</v>
       </c>
       <c r="E160" s="1">
@@ -12920,19 +12916,19 @@
       <c r="S160" s="1">
         <v>2800</v>
       </c>
-      <c r="T160" s="6">
+      <c r="T160" s="5">
         <v>263000</v>
       </c>
-      <c r="U160" s="5">
+      <c r="U160" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>166.03535353535352</v>
       </c>
-      <c r="V160" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V160" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>8669180390</v>
       </c>
@@ -12942,7 +12938,7 @@
       <c r="C161" s="1">
         <v>3</v>
       </c>
-      <c r="D161" s="5">
+      <c r="D161" s="4">
         <v>2.5</v>
       </c>
       <c r="E161" s="1">
@@ -12990,19 +12986,19 @@
       <c r="S161" s="1">
         <v>4614</v>
       </c>
-      <c r="T161" s="6">
+      <c r="T161" s="5">
         <v>285000</v>
       </c>
-      <c r="U161" s="5">
+      <c r="U161" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>116.94706606483381</v>
       </c>
-      <c r="V161" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V161" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>301401410</v>
       </c>
@@ -13012,7 +13008,7 @@
       <c r="C162" s="1">
         <v>3</v>
       </c>
-      <c r="D162" s="5">
+      <c r="D162" s="4">
         <v>2.5</v>
       </c>
       <c r="E162" s="1">
@@ -13060,19 +13056,19 @@
       <c r="S162" s="1">
         <v>4000</v>
       </c>
-      <c r="T162" s="6">
+      <c r="T162" s="5">
         <v>298000</v>
       </c>
-      <c r="U162" s="5">
+      <c r="U162" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>137.58079409048938</v>
       </c>
-      <c r="V162" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V162" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>8669160460</v>
       </c>
@@ -13082,7 +13078,7 @@
       <c r="C163" s="1">
         <v>3</v>
       </c>
-      <c r="D163" s="5">
+      <c r="D163" s="4">
         <v>2.5</v>
       </c>
       <c r="E163" s="1">
@@ -13130,19 +13126,19 @@
       <c r="S163" s="1">
         <v>4275</v>
       </c>
-      <c r="T163" s="6">
+      <c r="T163" s="5">
         <v>289950</v>
       </c>
-      <c r="U163" s="5">
+      <c r="U163" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>138.13720819437827</v>
       </c>
-      <c r="V163" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V163" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>8669160270</v>
       </c>
@@ -13152,7 +13148,7 @@
       <c r="C164" s="1">
         <v>3</v>
       </c>
-      <c r="D164" s="5">
+      <c r="D164" s="4">
         <v>2.5</v>
       </c>
       <c r="E164" s="1">
@@ -13200,19 +13196,19 @@
       <c r="S164" s="1">
         <v>3402</v>
       </c>
-      <c r="T164" s="6">
+      <c r="T164" s="5">
         <v>273500</v>
       </c>
-      <c r="U164" s="5">
+      <c r="U164" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>130.54892601431982</v>
       </c>
-      <c r="V164" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V164" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>301400320</v>
       </c>
@@ -13222,7 +13218,7 @@
       <c r="C165" s="1">
         <v>3</v>
       </c>
-      <c r="D165" s="5">
+      <c r="D165" s="4">
         <v>2.5</v>
       </c>
       <c r="E165" s="1">
@@ -13270,19 +13266,19 @@
       <c r="S165" s="1">
         <v>3273</v>
       </c>
-      <c r="T165" s="6">
+      <c r="T165" s="5">
         <v>255900</v>
       </c>
-      <c r="U165" s="5">
+      <c r="U165" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>166.49316851008459</v>
       </c>
-      <c r="V165" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V165" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>301401620</v>
       </c>
@@ -13292,7 +13288,7 @@
       <c r="C166" s="1">
         <v>3</v>
       </c>
-      <c r="D166" s="5">
+      <c r="D166" s="4">
         <v>2.5</v>
       </c>
       <c r="E166" s="1">
@@ -13340,19 +13336,19 @@
       <c r="S166" s="1">
         <v>4000</v>
       </c>
-      <c r="T166" s="6">
+      <c r="T166" s="5">
         <v>298900</v>
       </c>
-      <c r="U166" s="5">
+      <c r="U166" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>120.76767676767676</v>
       </c>
-      <c r="V166" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V166" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>8669160170</v>
       </c>
@@ -13362,7 +13358,7 @@
       <c r="C167" s="1">
         <v>3</v>
       </c>
-      <c r="D167" s="5">
+      <c r="D167" s="4">
         <v>2.5</v>
       </c>
       <c r="E167" s="1">
@@ -13410,19 +13406,19 @@
       <c r="S167" s="1">
         <v>3402</v>
       </c>
-      <c r="T167" s="6">
+      <c r="T167" s="5">
         <v>259000</v>
       </c>
-      <c r="U167" s="5">
+      <c r="U167" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>123.62768496420048</v>
       </c>
-      <c r="V167" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V167" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>2891000010</v>
       </c>
@@ -13432,7 +13428,7 @@
       <c r="C168" s="1">
         <v>4</v>
       </c>
-      <c r="D168" s="5">
+      <c r="D168" s="4">
         <v>2.5</v>
       </c>
       <c r="E168" s="1">
@@ -13480,19 +13476,19 @@
       <c r="S168" s="1">
         <v>6000</v>
       </c>
-      <c r="T168" s="6">
+      <c r="T168" s="5">
         <v>269000</v>
       </c>
-      <c r="U168" s="5">
+      <c r="U168" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>175.13020833333334</v>
       </c>
-      <c r="V168" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V168" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>1450300050</v>
       </c>
@@ -13502,7 +13498,7 @@
       <c r="C169" s="1">
         <v>4</v>
       </c>
-      <c r="D169" s="5">
+      <c r="D169" s="4">
         <v>2.5</v>
       </c>
       <c r="E169" s="1">
@@ -13550,19 +13546,19 @@
       <c r="S169" s="1">
         <v>9916</v>
       </c>
-      <c r="T169" s="6">
+      <c r="T169" s="5">
         <v>224950</v>
       </c>
-      <c r="U169" s="5">
+      <c r="U169" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>128.54285714285714</v>
       </c>
-      <c r="V169" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V169" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1921059235</v>
       </c>
@@ -13572,7 +13568,7 @@
       <c r="C170" s="1">
         <v>4</v>
       </c>
-      <c r="D170" s="5">
+      <c r="D170" s="4">
         <v>2.5</v>
       </c>
       <c r="E170" s="1">
@@ -13620,19 +13616,19 @@
       <c r="S170" s="1">
         <v>7685</v>
       </c>
-      <c r="T170" s="6">
+      <c r="T170" s="5">
         <v>215000</v>
       </c>
-      <c r="U170" s="5">
+      <c r="U170" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>185.34482758620689</v>
       </c>
-      <c r="V170" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V170" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>1388600070</v>
       </c>
@@ -13642,7 +13638,7 @@
       <c r="C171" s="1">
         <v>4</v>
       </c>
-      <c r="D171" s="5">
+      <c r="D171" s="4">
         <v>2.5</v>
       </c>
       <c r="E171" s="1">
@@ -13690,19 +13686,19 @@
       <c r="S171" s="1">
         <v>6600</v>
       </c>
-      <c r="T171" s="6">
+      <c r="T171" s="5">
         <v>294400</v>
       </c>
-      <c r="U171" s="5">
+      <c r="U171" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>173.1764705882353</v>
       </c>
-      <c r="V171" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V171" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>7338220160</v>
       </c>
@@ -13712,7 +13708,7 @@
       <c r="C172" s="1">
         <v>4</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D172" s="4">
         <v>2.5</v>
       </c>
       <c r="E172" s="1">
@@ -13760,19 +13756,19 @@
       <c r="S172" s="1">
         <v>3802</v>
       </c>
-      <c r="T172" s="6">
+      <c r="T172" s="5">
         <v>319500</v>
       </c>
-      <c r="U172" s="5">
+      <c r="U172" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>148.6046511627907</v>
       </c>
-      <c r="V172" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V172" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>7338220370</v>
       </c>
@@ -13782,7 +13778,7 @@
       <c r="C173" s="1">
         <v>4</v>
       </c>
-      <c r="D173" s="5">
+      <c r="D173" s="4">
         <v>2.5</v>
       </c>
       <c r="E173" s="1">
@@ -13830,19 +13826,19 @@
       <c r="S173" s="1">
         <v>3721</v>
       </c>
-      <c r="T173" s="6">
+      <c r="T173" s="5">
         <v>297000</v>
       </c>
-      <c r="U173" s="5">
+      <c r="U173" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>146.30541871921181</v>
       </c>
-      <c r="V173" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V173" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>301400240</v>
       </c>
@@ -13852,7 +13848,7 @@
       <c r="C174" s="1">
         <v>4</v>
       </c>
-      <c r="D174" s="5">
+      <c r="D174" s="4">
         <v>2.5</v>
       </c>
       <c r="E174" s="1">
@@ -13900,19 +13896,19 @@
       <c r="S174" s="1">
         <v>3500</v>
       </c>
-      <c r="T174" s="6">
+      <c r="T174" s="5">
         <v>282900</v>
       </c>
-      <c r="U174" s="5">
+      <c r="U174" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>165.43859649122808</v>
       </c>
-      <c r="V174" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V174" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>7338220200</v>
       </c>
@@ -13922,7 +13918,7 @@
       <c r="C175" s="1">
         <v>4</v>
       </c>
-      <c r="D175" s="5">
+      <c r="D175" s="4">
         <v>2.5</v>
       </c>
       <c r="E175" s="1">
@@ -13970,19 +13966,19 @@
       <c r="S175" s="1">
         <v>3721</v>
       </c>
-      <c r="T175" s="6">
+      <c r="T175" s="5">
         <v>275000</v>
       </c>
-      <c r="U175" s="5">
+      <c r="U175" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>127.90697674418605</v>
       </c>
-      <c r="V175" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V175" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>7338220120</v>
       </c>
@@ -13992,7 +13988,7 @@
       <c r="C176" s="1">
         <v>4</v>
       </c>
-      <c r="D176" s="5">
+      <c r="D176" s="4">
         <v>2.5</v>
       </c>
       <c r="E176" s="1">
@@ -14040,19 +14036,19 @@
       <c r="S176" s="1">
         <v>3721</v>
       </c>
-      <c r="T176" s="6">
+      <c r="T176" s="5">
         <v>260000</v>
       </c>
-      <c r="U176" s="5">
+      <c r="U176" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>120.93023255813954</v>
       </c>
-      <c r="V176" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V176" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>2597500090</v>
       </c>
@@ -14062,7 +14058,7 @@
       <c r="C177" s="1">
         <v>5</v>
       </c>
-      <c r="D177" s="5">
+      <c r="D177" s="4">
         <v>2.5</v>
       </c>
       <c r="E177" s="1">
@@ -14071,7 +14067,7 @@
       <c r="F177" s="1">
         <v>8470</v>
       </c>
-      <c r="G177" s="5">
+      <c r="G177" s="4">
         <v>1.5</v>
       </c>
       <c r="H177" s="1">
@@ -14110,19 +14106,19 @@
       <c r="S177" s="1">
         <v>8575</v>
       </c>
-      <c r="T177" s="6">
+      <c r="T177" s="5">
         <v>270000</v>
       </c>
-      <c r="U177" s="5">
+      <c r="U177" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>151.68539325842696</v>
       </c>
-      <c r="V177" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V177" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>492000532</v>
       </c>
@@ -14141,7 +14137,7 @@
       <c r="F178" s="1">
         <v>8700</v>
       </c>
-      <c r="G178" s="5">
+      <c r="G178" s="4">
         <v>1.5</v>
       </c>
       <c r="H178" s="1">
@@ -14180,19 +14176,19 @@
       <c r="S178" s="1">
         <v>4804</v>
       </c>
-      <c r="T178" s="6">
+      <c r="T178" s="5">
         <v>279950</v>
       </c>
-      <c r="U178" s="5">
+      <c r="U178" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>261.63551401869159</v>
       </c>
-      <c r="V178" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V178" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>7349650120</v>
       </c>
@@ -14250,19 +14246,19 @@
       <c r="S179" s="1">
         <v>6649</v>
       </c>
-      <c r="T179" s="6">
+      <c r="T179" s="5">
         <v>292000</v>
       </c>
-      <c r="U179" s="5">
+      <c r="U179" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>131.53153153153153</v>
       </c>
-      <c r="V179" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V179" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>7349650330</v>
       </c>
@@ -14320,19 +14316,19 @@
       <c r="S180" s="1">
         <v>7535</v>
       </c>
-      <c r="T180" s="6">
+      <c r="T180" s="5">
         <v>270000</v>
       </c>
-      <c r="U180" s="5">
+      <c r="U180" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>128.57142857142858</v>
       </c>
-      <c r="V180" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V180" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>8699100321</v>
       </c>
@@ -14390,19 +14386,19 @@
       <c r="S181" s="1">
         <v>7177</v>
       </c>
-      <c r="T181" s="6">
+      <c r="T181" s="5">
         <v>292000</v>
       </c>
-      <c r="U181" s="5">
+      <c r="U181" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>194.66666666666666</v>
       </c>
-      <c r="V181" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V181" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>301401610</v>
       </c>
@@ -14460,19 +14456,19 @@
       <c r="S182" s="1">
         <v>4000</v>
       </c>
-      <c r="T182" s="6">
+      <c r="T182" s="5">
         <v>329900</v>
       </c>
-      <c r="U182" s="5">
+      <c r="U182" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>133.2929292929293</v>
       </c>
-      <c r="V182" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V182" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>301401370</v>
       </c>
@@ -14530,19 +14526,19 @@
       <c r="S183" s="1">
         <v>4000</v>
       </c>
-      <c r="T183" s="6">
+      <c r="T183" s="5">
         <v>319900</v>
       </c>
-      <c r="U183" s="5">
+      <c r="U183" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>129.25252525252526</v>
       </c>
-      <c r="V183" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V183" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>301401390</v>
       </c>
@@ -14600,19 +14596,19 @@
       <c r="S184" s="1">
         <v>4000</v>
       </c>
-      <c r="T184" s="6">
+      <c r="T184" s="5">
         <v>319900</v>
       </c>
-      <c r="U184" s="5">
+      <c r="U184" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>147.6915974145891</v>
       </c>
-      <c r="V184" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V184" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>301401630</v>
       </c>
@@ -14670,19 +14666,19 @@
       <c r="S185" s="1">
         <v>4000</v>
       </c>
-      <c r="T185" s="6">
+      <c r="T185" s="5">
         <v>335900</v>
       </c>
-      <c r="U185" s="5">
+      <c r="U185" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>135.71717171717171</v>
       </c>
-      <c r="V185" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V185" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>2100200020</v>
       </c>
@@ -14701,7 +14697,7 @@
       <c r="F186" s="1">
         <v>4807</v>
       </c>
-      <c r="G186" s="5">
+      <c r="G186" s="4">
         <v>1.5</v>
       </c>
       <c r="H186" s="1">
@@ -14740,19 +14736,19 @@
       <c r="S186" s="1">
         <v>4807</v>
       </c>
-      <c r="T186" s="6">
+      <c r="T186" s="5">
         <v>288000</v>
       </c>
-      <c r="U186" s="5">
+      <c r="U186" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>272.72727272727275</v>
       </c>
-      <c r="V186" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V186" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>8698600080</v>
       </c>
@@ -14771,7 +14767,7 @@
       <c r="F187" s="1">
         <v>5250</v>
       </c>
-      <c r="G187" s="5">
+      <c r="G187" s="4">
         <v>1.5</v>
       </c>
       <c r="H187" s="1">
@@ -14810,19 +14806,19 @@
       <c r="S187" s="1">
         <v>5250</v>
       </c>
-      <c r="T187" s="6">
+      <c r="T187" s="5">
         <v>265000</v>
       </c>
-      <c r="U187" s="5">
+      <c r="U187" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>217.21311475409837</v>
       </c>
-      <c r="V187" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V187" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>8699100240</v>
       </c>
@@ -14880,19 +14876,19 @@
       <c r="S188" s="1">
         <v>5750</v>
       </c>
-      <c r="T188" s="6">
+      <c r="T188" s="5">
         <v>370000</v>
       </c>
-      <c r="U188" s="5">
+      <c r="U188" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>300.8130081300813</v>
       </c>
-      <c r="V188" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V188" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>1018000110</v>
       </c>
@@ -14950,19 +14946,19 @@
       <c r="S189" s="1">
         <v>5937</v>
       </c>
-      <c r="T189" s="6">
+      <c r="T189" s="5">
         <v>224000</v>
       </c>
-      <c r="U189" s="5">
+      <c r="U189" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>238.29787234042553</v>
       </c>
-      <c r="V189" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V189" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>3920900220</v>
       </c>
@@ -15020,19 +15016,19 @@
       <c r="S190" s="1">
         <v>7308</v>
       </c>
-      <c r="T190" s="6">
+      <c r="T190" s="5">
         <v>269950</v>
       </c>
-      <c r="U190" s="5">
+      <c r="U190" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>290.26881720430106</v>
       </c>
-      <c r="V190" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V190" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>8581400345</v>
       </c>
@@ -15090,19 +15086,19 @@
       <c r="S191" s="1">
         <v>4288</v>
       </c>
-      <c r="T191" s="6">
+      <c r="T191" s="5">
         <v>315000</v>
       </c>
-      <c r="U191" s="5">
+      <c r="U191" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>353.93258426966293</v>
       </c>
-      <c r="V191" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V191" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>4472000040</v>
       </c>
@@ -15160,19 +15156,19 @@
       <c r="S192" s="1">
         <v>6207</v>
       </c>
-      <c r="T192" s="6">
+      <c r="T192" s="5">
         <v>230000</v>
       </c>
-      <c r="U192" s="5">
+      <c r="U192" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>126.37362637362638</v>
       </c>
-      <c r="V192" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V192" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>8669150700</v>
       </c>
@@ -15230,19 +15226,19 @@
       <c r="S193" s="1">
         <v>3402</v>
       </c>
-      <c r="T193" s="6">
+      <c r="T193" s="5">
         <v>292000</v>
       </c>
-      <c r="U193" s="5">
+      <c r="U193" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>139.37947494033412</v>
       </c>
-      <c r="V193" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V193" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>8669180150</v>
       </c>
@@ -15300,19 +15296,19 @@
       <c r="S194" s="1">
         <v>4418</v>
       </c>
-      <c r="T194" s="6">
+      <c r="T194" s="5">
         <v>300000</v>
       </c>
-      <c r="U194" s="5">
+      <c r="U194" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>122.95081967213115</v>
       </c>
-      <c r="V194" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V194" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>1000102</v>
       </c>
@@ -15370,19 +15366,19 @@
       <c r="S195" s="1">
         <v>7316</v>
       </c>
-      <c r="T195" s="6">
+      <c r="T195" s="5">
         <v>280000</v>
       </c>
-      <c r="U195" s="5">
+      <c r="U195" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>135.92233009708738</v>
       </c>
-      <c r="V195" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V195" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>1000102</v>
       </c>
@@ -15440,19 +15436,19 @@
       <c r="S196" s="1">
         <v>7316</v>
       </c>
-      <c r="T196" s="6">
+      <c r="T196" s="5">
         <v>300000</v>
       </c>
-      <c r="U196" s="5">
+      <c r="U196" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>145.63106796116506</v>
       </c>
-      <c r="V196" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V196" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>3021059304</v>
       </c>
@@ -15510,19 +15506,19 @@
       <c r="S197" s="1">
         <v>9926</v>
       </c>
-      <c r="T197" s="6">
+      <c r="T197" s="5">
         <v>300000</v>
       </c>
-      <c r="U197" s="5">
+      <c r="U197" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>121.4574898785425</v>
       </c>
-      <c r="V197" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V197" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>5409000110</v>
       </c>
@@ -15532,7 +15528,7 @@
       <c r="C198" s="1">
         <v>6</v>
       </c>
-      <c r="D198" s="5">
+      <c r="D198" s="4">
         <v>4.5</v>
       </c>
       <c r="E198" s="1">
@@ -15580,19 +15576,19 @@
       <c r="S198" s="1">
         <v>11116</v>
       </c>
-      <c r="T198" s="6">
+      <c r="T198" s="5">
         <v>389000</v>
       </c>
-      <c r="U198" s="5">
+      <c r="U198" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>227.48538011695908</v>
       </c>
-      <c r="V198" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V198" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>2149800278</v>
       </c>
@@ -15650,19 +15646,19 @@
       <c r="S199" s="1">
         <v>69993</v>
       </c>
-      <c r="T199" s="6">
+      <c r="T199" s="5">
         <v>343000</v>
       </c>
-      <c r="U199" s="5">
+      <c r="U199" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>111.43599740090968</v>
       </c>
-      <c r="V199" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:22" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="V199" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>7116500920</v>
       </c>
@@ -15720,48 +15716,48 @@
       <c r="S200" s="1">
         <v>5956</v>
       </c>
-      <c r="T200" s="6">
+      <c r="T200" s="5">
         <v>300000</v>
       </c>
-      <c r="U200" s="5">
+      <c r="U200" s="4">
         <f>Tabela2[[#This Row],[price]]/Tabela2[[#This Row],[sqft_living15]]</f>
         <v>215.82733812949641</v>
       </c>
-      <c r="V200" s="5">
-        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],0,1)</f>
+      <c r="V200" s="4" t="b">
+        <f>IF(Tabela2[[#This Row],[price/sqft]]&gt;Tabela2[[#Totals],[price/sqft]],FALSE,TRUE)</f>
         <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="7" t="s">
+      <c r="A201" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B201" s="7"/>
-      <c r="C201" s="7"/>
-      <c r="D201" s="7"/>
-      <c r="E201" s="7"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="H201" s="7"/>
-      <c r="I201" s="7"/>
-      <c r="J201" s="7"/>
-      <c r="K201" s="7"/>
-      <c r="L201" s="7"/>
-      <c r="M201" s="7"/>
-      <c r="N201" s="7"/>
-      <c r="O201" s="7"/>
-      <c r="P201" s="7"/>
-      <c r="Q201" s="7"/>
-      <c r="R201" s="7"/>
-      <c r="S201" s="7"/>
-      <c r="T201" s="8"/>
-      <c r="U201" s="9">
+      <c r="B201" s="6"/>
+      <c r="C201" s="6"/>
+      <c r="D201" s="6"/>
+      <c r="E201" s="6"/>
+      <c r="F201" s="6"/>
+      <c r="G201" s="6"/>
+      <c r="H201" s="6"/>
+      <c r="I201" s="6"/>
+      <c r="J201" s="6"/>
+      <c r="K201" s="6"/>
+      <c r="L201" s="6"/>
+      <c r="M201" s="6"/>
+      <c r="N201" s="6"/>
+      <c r="O201" s="6"/>
+      <c r="P201" s="6"/>
+      <c r="Q201" s="6"/>
+      <c r="R201" s="6"/>
+      <c r="S201" s="6"/>
+      <c r="T201" s="7"/>
+      <c r="U201" s="8">
         <f>SUBTOTAL(101,Tabela2[price/sqft])</f>
         <v>164.0056746147404</v>
       </c>
-      <c r="V201" s="7">
+      <c r="V201" s="6" t="e">
         <f>SUBTOTAL(101,Tabela2[caro])</f>
-        <v>0.55778894472361806</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
